--- a/Output/all_performance.xlsx
+++ b/Output/all_performance.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sugar\DS_consult\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sugar\DS_consult_Sugarbayar_20240520\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9118249A-2290-4D40-896B-29D79190ACB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4F7835-64ED-4F5C-BF8B-E3EFB3C83018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6ABB0DBD-434F-4690-97B9-F4A889509F7C}"/>
+    <workbookView xWindow="6390" yWindow="2250" windowWidth="21600" windowHeight="11295" xr2:uid="{6ABB0DBD-434F-4690-97B9-F4A889509F7C}"/>
   </bookViews>
   <sheets>
     <sheet name="all_performance" sheetId="1" r:id="rId1"/>
@@ -125,9 +125,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -171,12 +171,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -516,7 +516,7 @@
   <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,7 +592,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1">
-        <v>9833.0088400000004</v>
+        <v>9833.01</v>
       </c>
       <c r="D2" s="2">
         <v>3683.0036799999898</v>
@@ -639,7 +639,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1">
-        <v>10041.63128</v>
+        <v>10041.629999999999</v>
       </c>
       <c r="D3" s="2">
         <v>583.97951999999896</v>
@@ -686,7 +686,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>9917.3758999999991</v>
+        <v>9917.3799999999992</v>
       </c>
       <c r="D4" s="1">
         <v>1654.213</v>
@@ -733,7 +733,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1">
-        <v>10031.3676</v>
+        <v>10031.370000000001</v>
       </c>
       <c r="D5" s="2">
         <v>2850.5653399999901</v>
@@ -780,7 +780,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1">
-        <v>9918.04522</v>
+        <v>9918.0400000000009</v>
       </c>
       <c r="D6" s="2">
         <v>130.68051999999901</v>
@@ -827,7 +827,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="1">
-        <v>9991.3351600000005</v>
+        <v>9991.3349999999991</v>
       </c>
       <c r="D7" s="2">
         <v>2660.6944600000002</v>
@@ -921,7 +921,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="2">
-        <v>10029.0729399999</v>
+        <v>10029.073</v>
       </c>
       <c r="D9" s="1">
         <v>1188.19884</v>
@@ -1062,7 +1062,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="1">
-        <v>10070.8904</v>
+        <v>10070.89</v>
       </c>
       <c r="D12" s="2">
         <v>263.00037999999898</v>
@@ -1109,7 +1109,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="2">
-        <v>9875.7190399999909</v>
+        <v>9875.7199999999993</v>
       </c>
       <c r="D13" s="2">
         <v>2456.9877999999999</v>
